--- a/Data/20161215_Pipette Training.xlsx
+++ b/Data/20161215_Pipette Training.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JamesB/Google Drive/Graduate School/Self_JamesTBrown/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JamesB/Google Drive/Graduate School/Self_JamesTBrown/GitHub/Pipette_training/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="17220" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,36 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Pipetting Practice </t>
+    <t>mass_mg</t>
   </si>
   <si>
-    <t>Eppendorf pipetts and saturious scale</t>
-  </si>
-  <si>
-    <t>1000ul</t>
-  </si>
-  <si>
-    <t>500ul</t>
-  </si>
-  <si>
-    <t>100ul</t>
-  </si>
-  <si>
-    <t>5ul</t>
-  </si>
-  <si>
-    <t>Set Volume (ul)</t>
-  </si>
-  <si>
-    <t>Actual Weight  (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average </t>
-  </si>
-  <si>
-    <t>standard deviation</t>
+    <t>volume_ul</t>
   </si>
 </sst>
 </file>
@@ -92,11 +68,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,11 +110,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$33</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000ul</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -176,12 +149,12 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$32</c:f>
+                <c:f>Sheet1!#REF!</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.00163007449435383</c:v>
+                    <c:v>1.0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -211,12 +184,12 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>995.1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -227,12 +200,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$33</c:f>
+              <c:f>Sheet1!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500ul</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -253,13 +223,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$32</c:f>
+                <c:f>Sheet1!$D$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>0.00135330283803315</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -288,13 +255,10 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31</c:f>
+              <c:f>Sheet1!$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>493.15</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -304,12 +268,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$33</c:f>
+              <c:f>Sheet1!$F$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100ul</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -330,13 +291,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$32</c:f>
+                <c:f>Sheet1!$F$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>0.000455913525635227</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -365,13 +323,10 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$31</c:f>
+              <c:f>Sheet1!$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>98.77500000000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -381,12 +336,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$33</c:f>
+              <c:f>Sheet1!$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5ul</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -409,13 +361,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$H$32</c:f>
+                <c:f>Sheet1!$H$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>6.40869944461654E-5</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -444,13 +393,10 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$31</c:f>
+              <c:f>Sheet1!$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.4875</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -465,11 +411,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="1309447824"/>
-        <c:axId val="1244846240"/>
+        <c:axId val="-946313584"/>
+        <c:axId val="-946308944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1309447824"/>
+        <c:axId val="-946313584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244846240"/>
+        <c:crossAx val="-946308944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -514,7 +460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244846240"/>
+        <c:axId val="-946308944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309447824"/>
+        <c:crossAx val="-946313584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,16 +1077,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1425,16 +1371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -1443,575 +1389,618 @@
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <f>0.997*1000</f>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <f>0.9943*1000</f>
+        <v>994.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <f>0.9938*1000</f>
+        <v>993.80000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>0.997</v>
-      </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-      <c r="D5">
-        <v>0.495</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <f>0.9951*1000</f>
+        <v>995.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1000</v>
       </c>
       <c r="B6">
-        <v>0.99429999999999996</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6">
-        <v>0.49370000000000003</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <f>1000*0.9952</f>
+        <v>995.19999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7">
-        <v>0.99380000000000002</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-      <c r="D7">
-        <v>0.4909</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <f>1000*0.9971</f>
+        <v>997.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
       <c r="B8">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="C8">
-        <v>500</v>
-      </c>
-      <c r="D8">
-        <v>0.49149999999999999</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <f>1000*0.9923</f>
+        <v>992.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1000</v>
       </c>
       <c r="B9">
-        <v>0.99519999999999997</v>
-      </c>
-      <c r="C9">
-        <v>500</v>
-      </c>
-      <c r="D9">
-        <v>0.49390000000000001</v>
-      </c>
-      <c r="E9">
+        <f>1000*0.996</f>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <f>1000*0.495</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <f>1000*0.4937</f>
+        <v>493.70000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12">
+        <f>1000*0.4909</f>
+        <v>490.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>500</v>
+      </c>
+      <c r="B13">
+        <f>1000*0.4915</f>
+        <v>491.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14">
+        <f>1000*0.4939</f>
+        <v>493.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <f>1000*0.4928</f>
+        <v>492.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <f>1000*0.4936</f>
+        <v>493.59999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>500</v>
+      </c>
+      <c r="B17">
+        <f>1000*0.4938</f>
+        <v>493.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>500</v>
+      </c>
+      <c r="B18">
+        <f>1000*0.4948</f>
+        <v>494.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>500</v>
+      </c>
+      <c r="B19">
+        <f>1000*0.4932</f>
+        <v>493.20000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <f>1000*0.4943</f>
+        <v>494.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>500</v>
+      </c>
+      <c r="B21">
+        <f>1000*0.4947</f>
+        <v>494.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22">
+        <f>1000*0.4938</f>
+        <v>493.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>1000*0.4943</f>
+        <v>494.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <f>1000*0.4933</f>
+        <v>493.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>500</v>
+      </c>
+      <c r="B25">
+        <f>1000*0.4934</f>
+        <v>493.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>500</v>
+      </c>
+      <c r="B26">
+        <f>1000*0.4939</f>
+        <v>493.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <f>1000*0.4959</f>
+        <v>495.90000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>500</v>
+      </c>
+      <c r="B28">
+        <f>1000*0.4946</f>
+        <v>494.59999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <f>1000*0.4939</f>
+        <v>493.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <f>1000*0.4953</f>
+        <v>495.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>500</v>
+      </c>
+      <c r="B31">
+        <f>1000*0.4931</f>
+        <v>493.09999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32">
+        <f>1000*0.4948</f>
+        <v>494.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>500</v>
+      </c>
+      <c r="B33">
+        <f>1000*0.496</f>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>500</v>
+      </c>
+      <c r="B34">
+        <f>1000*0.4961</f>
+        <v>496.09999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>100</v>
       </c>
-      <c r="F9">
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="G9">
+      <c r="B35">
+        <f>1000*0.0984</f>
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <f>1000*0.0988</f>
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <f>1000*0.098</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <f>1000*0.0986</f>
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <f>1000*0.0995</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <f>1000*0.099</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <f>1000*0.0988</f>
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <f>1000*0.0991</f>
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <f>1000*0.099</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <f>1000*0.0981</f>
+        <v>98.100000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <f>1000*0.099</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <f>1000*0.0987</f>
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <f>1000*0.0989</f>
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <f>1000*0.0986</f>
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <f>1000*0.0987</f>
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1000</v>
-      </c>
-      <c r="B10">
-        <v>0.99709999999999999</v>
-      </c>
-      <c r="C10">
-        <v>500</v>
-      </c>
-      <c r="D10">
-        <v>0.49280000000000002</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G10">
+      <c r="B50">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>0.99229999999999996</v>
-      </c>
-      <c r="C11">
-        <v>500</v>
-      </c>
-      <c r="D11">
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="G11">
+      <c r="B51">
+        <f>1000*0.0046</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>0.996</v>
-      </c>
-      <c r="C12">
-        <v>500</v>
-      </c>
-      <c r="D12">
-        <v>0.49380000000000002</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>9.9099999999999994E-2</v>
-      </c>
-      <c r="G12">
+      <c r="B52">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>5</v>
       </c>
-      <c r="H12">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>500</v>
-      </c>
-      <c r="D13">
-        <v>0.49480000000000002</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G13">
+      <c r="B53">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>500</v>
-      </c>
-      <c r="D14">
-        <v>0.49320000000000003</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="G14">
+      <c r="B54">
+        <f>1000*0.0044</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>5</v>
       </c>
-      <c r="H14">
-        <v>4.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>500</v>
-      </c>
-      <c r="D15">
-        <v>0.49430000000000002</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G15">
+      <c r="B55">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>5</v>
       </c>
-      <c r="H15">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>500</v>
-      </c>
-      <c r="D16">
-        <v>0.49469999999999997</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>9.8699999999999996E-2</v>
-      </c>
-      <c r="G16">
+      <c r="B56">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>5</v>
       </c>
-      <c r="H16">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>500</v>
-      </c>
-      <c r="D17">
-        <v>0.49380000000000002</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>9.8900000000000002E-2</v>
-      </c>
-      <c r="G17">
+      <c r="B57">
+        <f>1000*0.0044</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>5</v>
       </c>
-      <c r="H17">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>500</v>
-      </c>
-      <c r="D18">
-        <v>0.49430000000000002</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="G18">
+      <c r="B58">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>500</v>
-      </c>
-      <c r="D19">
-        <v>0.49330000000000002</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>9.8699999999999996E-2</v>
-      </c>
-      <c r="G19">
+      <c r="B59">
+        <f>1000*0.0047</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>5</v>
       </c>
-      <c r="H19">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>500</v>
-      </c>
-      <c r="D20">
-        <v>0.49340000000000001</v>
-      </c>
-      <c r="G20">
+      <c r="B60">
+        <f>1000*0.0048</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>5</v>
       </c>
-      <c r="H20">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>500</v>
-      </c>
-      <c r="D21">
-        <v>0.49390000000000001</v>
-      </c>
-      <c r="G21">
+      <c r="B61">
+        <f>1000*0.0046</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>5</v>
       </c>
-      <c r="H21">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>500</v>
-      </c>
-      <c r="D22">
-        <v>0.49590000000000001</v>
-      </c>
-      <c r="G22">
+      <c r="B62">
+        <f>1000*0.0041</f>
+        <v>4.1000000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="H22">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>500</v>
-      </c>
-      <c r="D23">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="G23">
+      <c r="B63">
+        <f>1000*0.0041</f>
+        <v>4.1000000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>5</v>
       </c>
-      <c r="H23">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>500</v>
-      </c>
-      <c r="D24">
-        <v>0.49390000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>500</v>
-      </c>
-      <c r="D25">
-        <v>0.49530000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>500</v>
-      </c>
-      <c r="D26">
-        <v>0.49309999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>500</v>
-      </c>
-      <c r="D27">
-        <v>0.49480000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28">
-        <v>0.496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>500</v>
-      </c>
-      <c r="D29">
-        <v>0.49609999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f>AVERAGE(B5:B12)*1000</f>
-        <v>995.09999999999991</v>
-      </c>
-      <c r="D31">
-        <f>AVERAGE(D5:D12)*1000</f>
-        <v>493.15</v>
-      </c>
-      <c r="F31">
-        <f>AVERAGE(F5:F12)*1000</f>
-        <v>98.775000000000006</v>
-      </c>
-      <c r="H31">
-        <f>AVERAGE(H5:H12)*1000</f>
-        <v>4.4874999999999998</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f>STDEV(A5:A12)</f>
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>STDEV(B5:B12)</f>
-        <v>1.6300744943538257E-3</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:H32" si="0">STDEV(C5:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1.353302838033149E-3</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4.5591352563522725E-4</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>6.4086994446165398E-5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="B64">
+        <f>1000*0.0043</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>5</v>
       </c>
+      <c r="B65">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <f>1000*0.0045</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <f>1000*0.0048</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <f>1000*0.0046</f>
+        <v>4.5999999999999996</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
